--- a/Projet 431.xlsx
+++ b/Projet 431.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien\Desktop\Arches\431 - projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien\Desktop\Arches\431 - projets\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Titre de l'étape</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Entre 4 et 5 heures</t>
   </si>
   <si>
-    <t>Tout le monde le monde travail sur le premier. Une fois que l'utilisation est comprise répartition des différents design entre les membres</t>
-  </si>
-  <si>
     <t>Première animation</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Mise en place des différents PNJ dans chacun des niveaux et gestion de leur déplacement. Quand on finit le premier niveau on passe au deuxième.</t>
   </si>
   <si>
-    <t>IL est maintenant possible d'enchainer les niveaux. On peut mourir et donc devoir recommencer. On peut aussi complétement finir le jeu.</t>
-  </si>
-  <si>
     <t>Chacun reprend le niveau qu'il avait commencer à créer</t>
   </si>
   <si>
@@ -231,6 +225,39 @@
   </si>
   <si>
     <t>Projet 431 Pablo, Emanuel et Damien - Jeu type RPG en 2D utilisant le C++</t>
+  </si>
+  <si>
+    <t>Tutoriel initiation SQL de OpenClassrooms</t>
+  </si>
+  <si>
+    <t>Suivre une à une les étapes du tutoriel d'OpenClassrooms expliquant les bases de SDL</t>
+  </si>
+  <si>
+    <t>Un fichier.cpp ouvrant une fenêtre SDL avec différentes images positionées selon nos souhaits.</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Tutoriel jeu 2D en SDL</t>
+  </si>
+  <si>
+    <t>Suivre étape par étape le tutoriel "http://jeux.developpez.com/tutoriels/tile-mapping-construction-niveau/presentation-generale/ " qui nous aidera sur le déroulement du design du jeu et de comment mettre en place une map avec des endroits non accessibles et des chemins. On apprendra aussi à faire des niveaux plus grands que juste une fenêtre grâce au scrolling.</t>
+  </si>
+  <si>
+    <t>Il est maintenant possible d'enchainer les niveaux. On peut mourir et donc devoir recommencer. On peut aussi complétement finir le jeu.</t>
+  </si>
+  <si>
+    <t>Une première démo de notre jeu qui sera jouable. Il n'y aura néamoins pas encore d'IA</t>
+  </si>
+  <si>
+    <t>Les différents chapitres du tutoriel seront distibués dans le groupe afin que chacun se spécialise dans quelque chose.</t>
+  </si>
+  <si>
+    <t>Tout le monde le monde travail sur le premier. Une fois que l'utilisation est comprise répartition des différents design entre les membres.</t>
+  </si>
+  <si>
+    <t>5 à 6 heures</t>
   </si>
 </sst>
 </file>
@@ -362,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -392,6 +419,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -677,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,14 +728,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -824,239 +857,279 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
